--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/99/incorrect_predictions_99.xlsx
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>14-18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,26 +537,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>After powering off the aircraft,</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_original/ori5/99/incorrect_predictions_99.xlsx
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14-18</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,26 +537,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>After powering off the aircraft,</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
